--- a/Filtered_By_Region/Region IV-B/Region IV-B_GABALDON.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_GABALDON.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:AU12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,23 +738,19 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>43844</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>43851</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>43923</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>43840</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="3" t="n">
         <v>44133</v>
       </c>
       <c r="Z2" t="inlineStr">
@@ -756,7 +758,6 @@
           <t>GS Mortar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
@@ -793,16 +794,11 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -872,27 +868,25 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
         <v>44650</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="3" t="n">
         <v>44696</v>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>43844</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>43923</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="3" t="n">
         <v>43840</v>
       </c>
-      <c r="Y3" s="2" t="n">
+      <c r="Y3" s="3" t="n">
         <v>44133</v>
       </c>
       <c r="Z3" t="inlineStr">
@@ -900,7 +894,6 @@
           <t>CMSEL Construction &amp; Developer</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
@@ -937,16 +930,11 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1016,25 +1004,22 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="3" t="n">
         <v>44650</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>44292</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="3" t="n">
         <v>44400</v>
       </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Y4" s="3" t="n">
         <v>44235</v>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1042,7 +1027,6 @@
           <t>GS Mortar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
@@ -1079,16 +1063,11 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1158,25 +1137,22 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>44292</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="X5" s="3" t="n">
         <v>44446</v>
       </c>
-      <c r="Y5" s="2" t="n">
+      <c r="Y5" s="3" t="n">
         <v>44235</v>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1184,7 +1160,6 @@
           <t>NMDC Construction Corp.</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
@@ -1221,20 +1196,16 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1304,25 +1275,22 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="3" t="n">
         <v>44591</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>44292</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="3" t="n">
         <v>44446</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Y6" s="3" t="n">
         <v>44235</v>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1331,7 +1299,6 @@
 Hawkstow Construction &amp; Development</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
@@ -1368,16 +1335,11 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1447,27 +1409,25 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="3" t="n">
         <v>44560</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" s="3" t="n">
         <v>44559</v>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>44292</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="X7" s="3" t="n">
         <v>44400</v>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="Y7" s="3" t="n">
         <v>44235</v>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1476,7 +1436,6 @@
 Hawkstow Construction &amp; Development</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
@@ -1513,16 +1472,11 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1592,27 +1546,25 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="3" t="n">
         <v>44560</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="3" t="n">
         <v>44559</v>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>44343</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>44292</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>44363</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="X8" s="3" t="n">
         <v>44446</v>
       </c>
-      <c r="Y8" s="2" t="n">
+      <c r="Y8" s="3" t="n">
         <v>44235</v>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1621,7 +1573,6 @@
 Hawkstow Construction &amp; Development</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
@@ -1658,16 +1609,11 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1737,23 +1683,19 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>44293</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="X9" s="3" t="n">
         <v>44323</v>
       </c>
-      <c r="Y9" s="2" t="n">
+      <c r="Y9" s="3" t="n">
         <v>44327</v>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1761,7 +1703,6 @@
           <t>CMSEL Construction &amp; Developer</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
@@ -1798,7 +1739,6 @@
       <c r="AM9" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1809,9 +1749,6 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1881,7 +1818,7 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="3" t="n">
         <v>44965</v>
       </c>
       <c r="R10" t="inlineStr">
@@ -1899,7 +1836,7 @@
           <t>2022-11-020</t>
         </is>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>44844</v>
       </c>
       <c r="V10" t="inlineStr">
@@ -1907,7 +1844,7 @@
           <t>10/21/2022</t>
         </is>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>44631</v>
       </c>
       <c r="X10" t="inlineStr">
@@ -1915,7 +1852,7 @@
           <t>11/23/2022</t>
         </is>
       </c>
-      <c r="Y10" s="2" t="n">
+      <c r="Y10" s="3" t="n">
         <v>44693</v>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1923,7 +1860,6 @@
           <t>GS Motar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
@@ -1960,7 +1896,6 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="n">
         <v>7.23</v>
       </c>
@@ -1974,8 +1909,6 @@
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2050,7 +1983,7 @@
           <t>4/28/2024</t>
         </is>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="R11" s="3" t="n">
         <v>45571</v>
       </c>
       <c r="S11" t="inlineStr">
@@ -2073,7 +2006,7 @@
           <t>6/27/2023</t>
         </is>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="3" t="n">
         <v>45237</v>
       </c>
       <c r="X11" t="inlineStr">
@@ -2091,7 +2024,6 @@
           <t>GS Motar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
@@ -2128,7 +2060,6 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="n">
         <v>7.24</v>
       </c>
@@ -2137,9 +2068,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2200,7 +2128,6 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
-      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2209,17 +2136,6 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
@@ -2256,14 +2172,11 @@
       <c r="AM12" t="n">
         <v>0</v>
       </c>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="n">
         <v>1</v>
       </c>
@@ -2273,6 +2186,79 @@
       <c r="AT12" t="inlineStr">
         <is>
           <t>Under Procurement</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region IV-B/Region IV-B_GABALDON.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_GABALDON.xlsx
@@ -758,41 +758,8 @@
           <t>GS Mortar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
       <c r="AL2" t="n">
         <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -894,41 +861,8 @@
           <t>CMSEL Construction &amp; Developer</t>
         </is>
       </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
       <c r="AL3" t="n">
         <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -1027,41 +961,8 @@
           <t>GS Mortar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
       <c r="AL4" t="n">
         <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1160,41 +1061,8 @@
           <t>NMDC Construction Corp.</t>
         </is>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
       <c r="AL5" t="n">
         <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1299,41 +1167,8 @@
 Hawkstow Construction &amp; Development</t>
         </is>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
       <c r="AL6" t="n">
         <v>1</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1436,41 +1271,8 @@
 Hawkstow Construction &amp; Development</t>
         </is>
       </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
       <c r="AL7" t="n">
         <v>1</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1573,41 +1375,8 @@
 Hawkstow Construction &amp; Development</t>
         </is>
       </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
       <c r="AL8" t="n">
         <v>1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1703,41 +1472,8 @@
           <t>CMSEL Construction &amp; Developer</t>
         </is>
       </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
       <c r="AL9" t="n">
         <v>1</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
@@ -1860,41 +1596,8 @@
           <t>GS Motar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1</v>
-      </c>
       <c r="AL10" t="n">
         <v>1</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
       </c>
       <c r="AO10" t="n">
         <v>7.23</v>
@@ -2024,41 +1727,8 @@
           <t>GS Motar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
       <c r="AL11" t="n">
         <v>1</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
       </c>
       <c r="AO11" t="n">
         <v>7.24</v>
@@ -2136,40 +1806,7 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
       <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AP12" t="inlineStr">

--- a/Filtered_By_Region/Region IV-B/Region IV-B_GABALDON.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_GABALDON.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,1189 +447,1220 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="34" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="68" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="26" customWidth="1" min="19" max="19"/>
+    <col width="13" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="65" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AB1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>109870</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Don Luis Hidalgo MS</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>BOAC (Capital)</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>14026827.51</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="n">
+      <c r="M2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="n">
         <v>14026827.51</v>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="inlineStr"/>
-      <c r="R2" s="4" t="inlineStr"/>
-      <c r="S2" s="4" t="inlineStr"/>
-      <c r="T2" s="4" t="inlineStr"/>
-      <c r="U2" s="5" t="n">
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr"/>
+      <c r="U2" s="6" t="n">
         <v>43844</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="6" t="n">
         <v>43851</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6" t="n">
         <v>43923</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="6" t="n">
         <v>43840</v>
       </c>
-      <c r="Y2" s="5" t="n">
+      <c r="Y2" s="6" t="n">
         <v>44133</v>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>GS Mortar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AA2" s="4" t="inlineStr"/>
-      <c r="AB2" s="4" t="n"/>
+      <c r="AA2" s="5" t="inlineStr"/>
+      <c r="AB2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>109957</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Sayao ES</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>MOGPOG</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>17278471.82</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="n">
+      <c r="M3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="n">
         <v>9955505.710000001</v>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="n">
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="n">
         <v>44650</v>
       </c>
-      <c r="R3" s="5" t="n">
+      <c r="R3" s="6" t="n">
         <v>44696</v>
       </c>
-      <c r="S3" s="4" t="inlineStr"/>
-      <c r="T3" s="4" t="inlineStr"/>
-      <c r="U3" s="5" t="n">
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr"/>
+      <c r="U3" s="6" t="n">
         <v>44343</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="6" t="n">
         <v>43844</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="6" t="n">
         <v>43923</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="6" t="n">
         <v>43840</v>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Y3" s="6" t="n">
         <v>44133</v>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>CMSEL Construction &amp; Developer</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="inlineStr"/>
-      <c r="AB3" s="4" t="n"/>
+      <c r="AA3" s="5" t="inlineStr"/>
+      <c r="AB3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>110490</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Jose L. Basa Memorial School</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>NAUJAN</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>9955505.710000001</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="n">
+      <c r="M4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="n">
         <v>16923951.09</v>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5" t="n">
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6" t="n">
         <v>44650</v>
       </c>
-      <c r="R4" s="4" t="inlineStr"/>
-      <c r="S4" s="4" t="inlineStr"/>
-      <c r="T4" s="4" t="inlineStr"/>
-      <c r="U4" s="5" t="n">
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr"/>
+      <c r="U4" s="6" t="n">
         <v>44343</v>
       </c>
-      <c r="V4" s="5" t="n">
+      <c r="V4" s="6" t="n">
         <v>44292</v>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="6" t="n">
         <v>44363</v>
       </c>
-      <c r="X4" s="5" t="n">
+      <c r="X4" s="6" t="n">
         <v>44400</v>
       </c>
-      <c r="Y4" s="5" t="n">
+      <c r="Y4" s="6" t="n">
         <v>44235</v>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>GS Mortar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AA4" s="4" t="inlineStr"/>
-      <c r="AB4" s="4" t="n"/>
+      <c r="AA4" s="5" t="inlineStr"/>
+      <c r="AB4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>110662</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>San Teodoro CS</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>SAN TEODORO</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>9411119.41</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4" t="n">
+      <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="n">
         <v>8046318.19</v>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5" t="n">
+      <c r="P5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6" t="n">
         <v>44834</v>
       </c>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr"/>
-      <c r="U5" s="5" t="n">
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr"/>
+      <c r="U5" s="6" t="n">
         <v>44343</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="6" t="n">
         <v>44292</v>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="6" t="n">
         <v>44363</v>
       </c>
-      <c r="X5" s="5" t="n">
+      <c r="X5" s="6" t="n">
         <v>44446</v>
       </c>
-      <c r="Y5" s="5" t="n">
+      <c r="Y5" s="6" t="n">
         <v>44235</v>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>NMDC Construction Corp.</t>
         </is>
       </c>
-      <c r="AA5" s="4" t="inlineStr"/>
-      <c r="AB5" s="4" t="n"/>
+      <c r="AA5" s="5" t="inlineStr"/>
+      <c r="AB5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>111329</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Looc CES</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>LOOC</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5" t="n">
         <v>11297198.88</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4" t="n">
+      <c r="M6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="n">
         <v>9032617.130000001</v>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5" t="n">
+      <c r="P6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6" t="n">
         <v>44591</v>
       </c>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="5" t="n">
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
+      <c r="U6" s="6" t="n">
         <v>44343</v>
       </c>
-      <c r="V6" s="5" t="n">
+      <c r="V6" s="6" t="n">
         <v>44292</v>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="6" t="n">
         <v>44363</v>
       </c>
-      <c r="X6" s="5" t="n">
+      <c r="X6" s="6" t="n">
         <v>44446</v>
       </c>
-      <c r="Y6" s="5" t="n">
+      <c r="Y6" s="6" t="n">
         <v>44235</v>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>RMR Construction &amp; Trading 
 Hawkstow Construction &amp; Development</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr"/>
-      <c r="AB6" s="4" t="n"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>111356</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Odiongan South CES</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>ODIONGAN</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="5" t="n">
         <v>6016250.46</v>
       </c>
-      <c r="M7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="n">
+      <c r="M7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
         <v>5032593.98</v>
       </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="n">
+      <c r="P7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6" t="n">
         <v>44560</v>
       </c>
-      <c r="R7" s="5" t="n">
+      <c r="R7" s="6" t="n">
         <v>44559</v>
       </c>
-      <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="4" t="inlineStr"/>
-      <c r="U7" s="5" t="n">
+      <c r="S7" s="5" t="inlineStr"/>
+      <c r="T7" s="5" t="inlineStr"/>
+      <c r="U7" s="6" t="n">
         <v>44343</v>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="6" t="n">
         <v>44292</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="6" t="n">
         <v>44363</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="6" t="n">
         <v>44400</v>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="6" t="n">
         <v>44235</v>
       </c>
-      <c r="Z7" s="4" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>RMR Construction &amp; Trading 
 Hawkstow Construction &amp; Development</t>
         </is>
       </c>
-      <c r="AA7" s="4" t="inlineStr"/>
-      <c r="AB7" s="4" t="n"/>
+      <c r="AA7" s="5" t="inlineStr"/>
+      <c r="AB7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>111411</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>San Agustin CES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>SAN AGUSTIN</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="5" t="n">
         <v>6037432.64</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4" t="n">
+      <c r="M8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="n">
         <v>5049882.03</v>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5" t="n">
+      <c r="P8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6" t="n">
         <v>44560</v>
       </c>
-      <c r="R8" s="5" t="n">
+      <c r="R8" s="6" t="n">
         <v>44559</v>
       </c>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="5" t="n">
+      <c r="S8" s="5" t="inlineStr"/>
+      <c r="T8" s="5" t="inlineStr"/>
+      <c r="U8" s="6" t="n">
         <v>44343</v>
       </c>
-      <c r="V8" s="5" t="n">
+      <c r="V8" s="6" t="n">
         <v>44292</v>
       </c>
-      <c r="W8" s="5" t="n">
+      <c r="W8" s="6" t="n">
         <v>44363</v>
       </c>
-      <c r="X8" s="5" t="n">
+      <c r="X8" s="6" t="n">
         <v>44446</v>
       </c>
-      <c r="Y8" s="5" t="n">
+      <c r="Y8" s="6" t="n">
         <v>44235</v>
       </c>
-      <c r="Z8" s="4" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>RMR Construction &amp; Trading 
 Hawkstow Construction &amp; Development</t>
         </is>
       </c>
-      <c r="AA8" s="4" t="inlineStr"/>
-      <c r="AB8" s="4" t="n"/>
+      <c r="AA8" s="5" t="inlineStr"/>
+      <c r="AB8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>110558</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Juan Morente Sr. Mem. Pilot Sch.</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>PINAMALAYAN</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="5" t="n">
         <v>3145338</v>
       </c>
-      <c r="M9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4" t="n">
+      <c r="M9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="n">
         <v>3145338</v>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4" t="inlineStr"/>
-      <c r="R9" s="4" t="inlineStr"/>
-      <c r="S9" s="4" t="inlineStr"/>
-      <c r="T9" s="4" t="inlineStr"/>
-      <c r="U9" s="5" t="n">
+      <c r="P9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="R9" s="5" t="inlineStr"/>
+      <c r="S9" s="5" t="inlineStr"/>
+      <c r="T9" s="5" t="inlineStr"/>
+      <c r="U9" s="6" t="n">
         <v>44293</v>
       </c>
-      <c r="V9" s="5" t="n">
+      <c r="V9" s="6" t="n">
         <v>44293</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="6" t="n">
         <v>44312</v>
       </c>
-      <c r="X9" s="5" t="n">
+      <c r="X9" s="6" t="n">
         <v>44323</v>
       </c>
-      <c r="Y9" s="5" t="n">
+      <c r="Y9" s="6" t="n">
         <v>44327</v>
       </c>
-      <c r="Z9" s="4" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>CMSEL Construction &amp; Developer</t>
         </is>
       </c>
-      <c r="AA9" s="4" t="inlineStr"/>
-      <c r="AB9" s="4" t="n"/>
+      <c r="AA9" s="5" t="inlineStr"/>
+      <c r="AB9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2022</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>109952</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Mogpog Central School</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>MOGPOG</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>5234939.52</v>
       </c>
-      <c r="M10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4" t="n">
+      <c r="M10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5" t="n">
         <v>5182728.28</v>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5" t="n">
+      <c r="P10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6" t="n">
         <v>44965</v>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>7/28/2023</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>2022-10-BEFF-04</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>2022-11-020</t>
         </is>
       </c>
-      <c r="U10" s="5" t="n">
+      <c r="U10" s="6" t="n">
         <v>44844</v>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>10/21/2022</t>
         </is>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W10" s="6" t="n">
         <v>44631</v>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>11/23/2022</t>
         </is>
       </c>
-      <c r="Y10" s="5" t="n">
+      <c r="Y10" s="6" t="n">
         <v>44693</v>
       </c>
-      <c r="Z10" s="4" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>GS Motar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AA10" s="4" t="inlineStr"/>
-      <c r="AB10" s="4" t="n"/>
+      <c r="AA10" s="5" t="inlineStr"/>
+      <c r="AB10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>109924</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Bangbang ES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>GASAN</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>10616143.68</v>
       </c>
-      <c r="M11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4" t="n">
+      <c r="M11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="n">
         <v>10616143.68</v>
       </c>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="P11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5" t="inlineStr">
         <is>
           <t>4/28/2024</t>
         </is>
       </c>
-      <c r="R11" s="5" t="n">
+      <c r="R11" s="6" t="n">
         <v>45571</v>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>2023-OSEC-4B-23-1799-002</t>
         </is>
       </c>
-      <c r="T11" s="4" t="inlineStr">
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>2023-08-006</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="U11" s="5" t="inlineStr">
         <is>
           <t>6/16/2023</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>6/27/2023</t>
         </is>
       </c>
-      <c r="W11" s="5" t="n">
+      <c r="W11" s="6" t="n">
         <v>45237</v>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>7/18/2023</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>8/25/2023</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>GS Motar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AA11" s="4" t="inlineStr"/>
-      <c r="AB11" s="4" t="n"/>
+      <c r="AA11" s="5" t="inlineStr"/>
+      <c r="AB11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>109952</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Mogpog CS</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>GASAN</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building (2 bldgs)</t>
         </is>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>14164230.3</v>
       </c>
-      <c r="M12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4" t="inlineStr"/>
-      <c r="O12" s="4" t="inlineStr">
+      <c r="M12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="P12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" s="4" t="inlineStr"/>
-      <c r="R12" s="4" t="inlineStr"/>
-      <c r="S12" s="4" t="inlineStr"/>
-      <c r="T12" s="4" t="inlineStr"/>
-      <c r="U12" s="4" t="inlineStr"/>
-      <c r="V12" s="4" t="inlineStr"/>
-      <c r="W12" s="4" t="inlineStr"/>
-      <c r="X12" s="4" t="inlineStr"/>
-      <c r="Y12" s="4" t="inlineStr"/>
-      <c r="Z12" s="4" t="inlineStr"/>
-      <c r="AA12" s="4" t="inlineStr"/>
-      <c r="AB12" s="4" t="n"/>
+      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="R12" s="5" t="inlineStr"/>
+      <c r="S12" s="5" t="inlineStr"/>
+      <c r="T12" s="5" t="inlineStr"/>
+      <c r="U12" s="5" t="inlineStr"/>
+      <c r="V12" s="5" t="inlineStr"/>
+      <c r="W12" s="5" t="inlineStr"/>
+      <c r="X12" s="5" t="inlineStr"/>
+      <c r="Y12" s="5" t="inlineStr"/>
+      <c r="Z12" s="5" t="inlineStr"/>
+      <c r="AA12" s="5" t="inlineStr"/>
+      <c r="AB12" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region IV-B/Region IV-B_GABALDON.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_GABALDON.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region IV-B/Region IV-B_GABALDON.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_GABALDON.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,1203 +453,1241 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="68" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
-    <col width="19" customWidth="1" min="15" max="15"/>
-    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="34" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="68" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="19" customWidth="1" min="16" max="16"/>
     <col width="26" customWidth="1" min="17" max="17"/>
-    <col width="27" customWidth="1" min="18" max="18"/>
-    <col width="26" customWidth="1" min="19" max="19"/>
-    <col width="13" customWidth="1" min="20" max="20"/>
-    <col width="31" customWidth="1" min="21" max="21"/>
-    <col width="27" customWidth="1" min="22" max="22"/>
-    <col width="21" customWidth="1" min="23" max="23"/>
-    <col width="33" customWidth="1" min="24" max="24"/>
-    <col width="31" customWidth="1" min="25" max="25"/>
-    <col width="65" customWidth="1" min="26" max="26"/>
-    <col width="15" customWidth="1" min="27" max="27"/>
-    <col width="28" customWidth="1" min="28" max="28"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
+    <col width="26" customWidth="1" min="20" max="20"/>
+    <col width="13" customWidth="1" min="21" max="21"/>
+    <col width="31" customWidth="1" min="22" max="22"/>
+    <col width="27" customWidth="1" min="23" max="23"/>
+    <col width="21" customWidth="1" min="24" max="24"/>
+    <col width="33" customWidth="1" min="25" max="25"/>
+    <col width="31" customWidth="1" min="26" max="26"/>
+    <col width="65" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="28" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Z1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="AA1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AB1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AC1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>109870</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Don Luis Hidalgo MS</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>BOAC (Capital)</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>14026827.51</v>
       </c>
-      <c r="M2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="n">
         <v>14026827.51</v>
       </c>
-      <c r="O2" s="5" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="Q2" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" s="5" t="inlineStr"/>
       <c r="S2" s="5" t="inlineStr"/>
       <c r="T2" s="5" t="inlineStr"/>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="5" t="inlineStr"/>
+      <c r="V2" s="6" t="n">
         <v>43844</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="W2" s="6" t="n">
         <v>43851</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="X2" s="6" t="n">
         <v>43923</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="Y2" s="6" t="n">
         <v>43840</v>
       </c>
-      <c r="Y2" s="6" t="n">
+      <c r="Z2" s="6" t="n">
         <v>44133</v>
       </c>
-      <c r="Z2" s="5" t="inlineStr">
+      <c r="AA2" s="5" t="inlineStr">
         <is>
           <t>GS Mortar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AA2" s="5" t="inlineStr"/>
-      <c r="AB2" s="7" t="n"/>
+      <c r="AB2" s="5" t="inlineStr"/>
+      <c r="AC2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>109957</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Sayao ES</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>MOGPOG</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="M3" s="5" t="n">
         <v>17278471.82</v>
       </c>
-      <c r="M3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>9955505.710000001</v>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6" t="n">
+      <c r="Q3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6" t="n">
         <v>44650</v>
       </c>
-      <c r="R3" s="6" t="n">
+      <c r="S3" s="6" t="n">
         <v>44696</v>
       </c>
-      <c r="S3" s="5" t="inlineStr"/>
       <c r="T3" s="5" t="inlineStr"/>
-      <c r="U3" s="6" t="n">
+      <c r="U3" s="5" t="inlineStr"/>
+      <c r="V3" s="6" t="n">
         <v>44343</v>
       </c>
-      <c r="V3" s="6" t="n">
+      <c r="W3" s="6" t="n">
         <v>43844</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="X3" s="6" t="n">
         <v>43923</v>
       </c>
-      <c r="X3" s="6" t="n">
+      <c r="Y3" s="6" t="n">
         <v>43840</v>
       </c>
-      <c r="Y3" s="6" t="n">
+      <c r="Z3" s="6" t="n">
         <v>44133</v>
       </c>
-      <c r="Z3" s="5" t="inlineStr">
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>CMSEL Construction &amp; Developer</t>
         </is>
       </c>
-      <c r="AA3" s="5" t="inlineStr"/>
-      <c r="AB3" s="7" t="n"/>
+      <c r="AB3" s="5" t="inlineStr"/>
+      <c r="AC3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>110490</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Jose L. Basa Memorial School</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>NAUJAN</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="M4" s="5" t="n">
         <v>9955505.710000001</v>
       </c>
-      <c r="M4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="n">
         <v>16923951.09</v>
       </c>
-      <c r="O4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6" t="n">
+      <c r="Q4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6" t="n">
         <v>44650</v>
       </c>
-      <c r="R4" s="5" t="inlineStr"/>
       <c r="S4" s="5" t="inlineStr"/>
       <c r="T4" s="5" t="inlineStr"/>
-      <c r="U4" s="6" t="n">
+      <c r="U4" s="5" t="inlineStr"/>
+      <c r="V4" s="6" t="n">
         <v>44343</v>
       </c>
-      <c r="V4" s="6" t="n">
+      <c r="W4" s="6" t="n">
         <v>44292</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="X4" s="6" t="n">
         <v>44363</v>
       </c>
-      <c r="X4" s="6" t="n">
+      <c r="Y4" s="6" t="n">
         <v>44400</v>
       </c>
-      <c r="Y4" s="6" t="n">
+      <c r="Z4" s="6" t="n">
         <v>44235</v>
       </c>
-      <c r="Z4" s="5" t="inlineStr">
+      <c r="AA4" s="5" t="inlineStr">
         <is>
           <t>GS Mortar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AA4" s="5" t="inlineStr"/>
-      <c r="AB4" s="7" t="n"/>
+      <c r="AB4" s="5" t="inlineStr"/>
+      <c r="AC4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>110662</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>San Teodoro CS</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>SAN TEODORO</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="M5" s="5" t="n">
         <v>9411119.41</v>
       </c>
-      <c r="M5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="n">
         <v>8046318.19</v>
       </c>
-      <c r="O5" s="5" t="inlineStr">
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6" t="n">
+      <c r="Q5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6" t="n">
         <v>44834</v>
       </c>
-      <c r="R5" s="5" t="inlineStr"/>
       <c r="S5" s="5" t="inlineStr"/>
       <c r="T5" s="5" t="inlineStr"/>
-      <c r="U5" s="6" t="n">
+      <c r="U5" s="5" t="inlineStr"/>
+      <c r="V5" s="6" t="n">
         <v>44343</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="W5" s="6" t="n">
         <v>44292</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="X5" s="6" t="n">
         <v>44363</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="Y5" s="6" t="n">
         <v>44446</v>
       </c>
-      <c r="Y5" s="6" t="n">
+      <c r="Z5" s="6" t="n">
         <v>44235</v>
       </c>
-      <c r="Z5" s="5" t="inlineStr">
+      <c r="AA5" s="5" t="inlineStr">
         <is>
           <t>NMDC Construction Corp.</t>
         </is>
       </c>
-      <c r="AA5" s="5" t="inlineStr"/>
-      <c r="AB5" s="7" t="n"/>
+      <c r="AB5" s="5" t="inlineStr"/>
+      <c r="AC5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>111329</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Looc CES</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>LOOC</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="M6" s="5" t="n">
         <v>11297198.88</v>
       </c>
-      <c r="M6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="n">
         <v>9032617.130000001</v>
       </c>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6" t="n">
+      <c r="Q6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6" t="n">
         <v>44591</v>
       </c>
-      <c r="R6" s="5" t="inlineStr"/>
       <c r="S6" s="5" t="inlineStr"/>
       <c r="T6" s="5" t="inlineStr"/>
-      <c r="U6" s="6" t="n">
+      <c r="U6" s="5" t="inlineStr"/>
+      <c r="V6" s="6" t="n">
         <v>44343</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="W6" s="6" t="n">
         <v>44292</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="X6" s="6" t="n">
         <v>44363</v>
       </c>
-      <c r="X6" s="6" t="n">
+      <c r="Y6" s="6" t="n">
         <v>44446</v>
       </c>
-      <c r="Y6" s="6" t="n">
+      <c r="Z6" s="6" t="n">
         <v>44235</v>
       </c>
-      <c r="Z6" s="5" t="inlineStr">
+      <c r="AA6" s="5" t="inlineStr">
         <is>
           <t>RMR Construction &amp; Trading 
 Hawkstow Construction &amp; Development</t>
         </is>
       </c>
-      <c r="AA6" s="5" t="inlineStr"/>
-      <c r="AB6" s="7" t="n"/>
+      <c r="AB6" s="5" t="inlineStr"/>
+      <c r="AC6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>111356</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Odiongan South CES</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>ODIONGAN</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="M7" s="5" t="n">
         <v>6016250.46</v>
       </c>
-      <c r="M7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="n">
         <v>5032593.98</v>
       </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6" t="n">
+      <c r="Q7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6" t="n">
         <v>44560</v>
       </c>
-      <c r="R7" s="6" t="n">
+      <c r="S7" s="6" t="n">
         <v>44559</v>
       </c>
-      <c r="S7" s="5" t="inlineStr"/>
       <c r="T7" s="5" t="inlineStr"/>
-      <c r="U7" s="6" t="n">
+      <c r="U7" s="5" t="inlineStr"/>
+      <c r="V7" s="6" t="n">
         <v>44343</v>
       </c>
-      <c r="V7" s="6" t="n">
+      <c r="W7" s="6" t="n">
         <v>44292</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="X7" s="6" t="n">
         <v>44363</v>
       </c>
-      <c r="X7" s="6" t="n">
+      <c r="Y7" s="6" t="n">
         <v>44400</v>
       </c>
-      <c r="Y7" s="6" t="n">
+      <c r="Z7" s="6" t="n">
         <v>44235</v>
       </c>
-      <c r="Z7" s="5" t="inlineStr">
+      <c r="AA7" s="5" t="inlineStr">
         <is>
           <t>RMR Construction &amp; Trading 
 Hawkstow Construction &amp; Development</t>
         </is>
       </c>
-      <c r="AA7" s="5" t="inlineStr"/>
-      <c r="AB7" s="7" t="n"/>
+      <c r="AB7" s="5" t="inlineStr"/>
+      <c r="AC7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Romblon</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>111411</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>San Agustin CES</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>SAN AGUSTIN</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="M8" s="5" t="n">
         <v>6037432.64</v>
       </c>
-      <c r="M8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="n">
         <v>5049882.03</v>
       </c>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="6" t="n">
+      <c r="Q8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6" t="n">
         <v>44560</v>
       </c>
-      <c r="R8" s="6" t="n">
+      <c r="S8" s="6" t="n">
         <v>44559</v>
       </c>
-      <c r="S8" s="5" t="inlineStr"/>
       <c r="T8" s="5" t="inlineStr"/>
-      <c r="U8" s="6" t="n">
+      <c r="U8" s="5" t="inlineStr"/>
+      <c r="V8" s="6" t="n">
         <v>44343</v>
       </c>
-      <c r="V8" s="6" t="n">
+      <c r="W8" s="6" t="n">
         <v>44292</v>
       </c>
-      <c r="W8" s="6" t="n">
+      <c r="X8" s="6" t="n">
         <v>44363</v>
       </c>
-      <c r="X8" s="6" t="n">
+      <c r="Y8" s="6" t="n">
         <v>44446</v>
       </c>
-      <c r="Y8" s="6" t="n">
+      <c r="Z8" s="6" t="n">
         <v>44235</v>
       </c>
-      <c r="Z8" s="5" t="inlineStr">
+      <c r="AA8" s="5" t="inlineStr">
         <is>
           <t>RMR Construction &amp; Trading 
 Hawkstow Construction &amp; Development</t>
         </is>
       </c>
-      <c r="AA8" s="5" t="inlineStr"/>
-      <c r="AB8" s="7" t="n"/>
+      <c r="AB8" s="5" t="inlineStr"/>
+      <c r="AC8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>146</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>110558</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Juan Morente Sr. Mem. Pilot Sch.</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PINAMALAYAN</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="M9" s="5" t="n">
         <v>3145338</v>
       </c>
-      <c r="M9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="n">
         <v>3145338</v>
       </c>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" s="5" t="inlineStr"/>
       <c r="S9" s="5" t="inlineStr"/>
       <c r="T9" s="5" t="inlineStr"/>
-      <c r="U9" s="6" t="n">
-        <v>44293</v>
-      </c>
+      <c r="U9" s="5" t="inlineStr"/>
       <c r="V9" s="6" t="n">
         <v>44293</v>
       </c>
       <c r="W9" s="6" t="n">
+        <v>44293</v>
+      </c>
+      <c r="X9" s="6" t="n">
         <v>44312</v>
       </c>
-      <c r="X9" s="6" t="n">
+      <c r="Y9" s="6" t="n">
         <v>44323</v>
       </c>
-      <c r="Y9" s="6" t="n">
+      <c r="Z9" s="6" t="n">
         <v>44327</v>
       </c>
-      <c r="Z9" s="5" t="inlineStr">
+      <c r="AA9" s="5" t="inlineStr">
         <is>
           <t>CMSEL Construction &amp; Developer</t>
         </is>
       </c>
-      <c r="AA9" s="5" t="inlineStr"/>
-      <c r="AB9" s="7" t="n"/>
+      <c r="AB9" s="5" t="inlineStr"/>
+      <c r="AC9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>174</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2022</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>109952</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Mogpog Central School</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>MOGPOG</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>5234939.52</v>
       </c>
-      <c r="M10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="n">
         <v>5182728.28</v>
       </c>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="6" t="n">
+      <c r="Q10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6" t="n">
         <v>44965</v>
       </c>
-      <c r="R10" s="5" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>7/28/2023</t>
         </is>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>2022-10-BEFF-04</t>
         </is>
       </c>
-      <c r="T10" s="5" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr">
         <is>
           <t>2022-11-020</t>
         </is>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="V10" s="6" t="n">
         <v>44844</v>
       </c>
-      <c r="V10" s="5" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
         <is>
           <t>10/21/2022</t>
         </is>
       </c>
-      <c r="W10" s="6" t="n">
+      <c r="X10" s="6" t="n">
         <v>44631</v>
       </c>
-      <c r="X10" s="5" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>11/23/2022</t>
         </is>
       </c>
-      <c r="Y10" s="6" t="n">
+      <c r="Z10" s="6" t="n">
         <v>44693</v>
       </c>
-      <c r="Z10" s="5" t="inlineStr">
+      <c r="AA10" s="5" t="inlineStr">
         <is>
           <t>GS Motar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AA10" s="5" t="inlineStr"/>
-      <c r="AB10" s="7" t="n"/>
+      <c r="AB10" s="5" t="inlineStr"/>
+      <c r="AC10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>193</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>109924</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Bangbang ES</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>GASAN</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="M11" s="5" t="n">
         <v>10616143.68</v>
       </c>
-      <c r="M11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="n">
         <v>10616143.68</v>
       </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="P11" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="inlineStr">
+      <c r="Q11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>4/28/2024</t>
         </is>
       </c>
-      <c r="R11" s="6" t="n">
+      <c r="S11" s="6" t="n">
         <v>45571</v>
       </c>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>2023-OSEC-4B-23-1799-002</t>
         </is>
       </c>
-      <c r="T11" s="5" t="inlineStr">
+      <c r="U11" s="5" t="inlineStr">
         <is>
           <t>2023-08-006</t>
         </is>
       </c>
-      <c r="U11" s="5" t="inlineStr">
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>6/16/2023</t>
         </is>
       </c>
-      <c r="V11" s="5" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr">
         <is>
           <t>6/27/2023</t>
         </is>
       </c>
-      <c r="W11" s="6" t="n">
+      <c r="X11" s="6" t="n">
         <v>45237</v>
       </c>
-      <c r="X11" s="5" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>7/18/2023</t>
         </is>
       </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>8/25/2023</t>
         </is>
       </c>
-      <c r="Z11" s="5" t="inlineStr">
+      <c r="AA11" s="5" t="inlineStr">
         <is>
           <t>GS Motar Builders Construction and Trading</t>
         </is>
       </c>
-      <c r="AA11" s="5" t="inlineStr"/>
-      <c r="AB11" s="7" t="n"/>
+      <c r="AB11" s="5" t="inlineStr"/>
+      <c r="AC11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>245</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region IV-B</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Marinduque</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>109952</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Mogpog CS</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>GASAN</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building (2 bldgs)</t>
         </is>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="M12" s="5" t="n">
         <v>14164230.3</v>
       </c>
-      <c r="M12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="Q12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" s="5" t="inlineStr"/>
       <c r="R12" s="5" t="inlineStr"/>
       <c r="S12" s="5" t="inlineStr"/>
       <c r="T12" s="5" t="inlineStr"/>
@@ -1660,11 +1698,12 @@
       <c r="Y12" s="5" t="inlineStr"/>
       <c r="Z12" s="5" t="inlineStr"/>
       <c r="AA12" s="5" t="inlineStr"/>
-      <c r="AB12" s="7" t="n"/>
+      <c r="AB12" s="5" t="inlineStr"/>
+      <c r="AC12" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AB2:AB12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AC2:AC12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
